--- a/Ficha2/Ficha 2 - dados.xlsx
+++ b/Ficha2/Ficha 2 - dados.xlsx
@@ -1,62 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21ec33bd95ee2c41/Documentos/Alex/UMinho/Analise de Clusters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Analise-de-Clusters/Ficha2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF1049D4-3DD0-42D8-8483-7A82EBBE51C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA6B4BE-4974-7B41-BCF6-B10F26423342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dias e comp" sheetId="1" r:id="rId1"/>
-    <sheet name="Temp e Oxig" sheetId="2" r:id="rId2"/>
+    <sheet name="DiasComp" sheetId="1" r:id="rId1"/>
+    <sheet name="TempOxig" sheetId="2" r:id="rId2"/>
+    <sheet name="4" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>3.1</t>
   </si>
   <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
     <t>4.7</t>
   </si>
   <si>
@@ -66,12 +41,6 @@
     <t>5.2</t>
   </si>
   <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>Idade (dias)</t>
-  </si>
-  <si>
     <t>Comprimento alar (cm)</t>
   </si>
   <si>
@@ -91,12 +60,24 @@
   </si>
   <si>
     <t>Oxigénio (ml/g/hr)</t>
+  </si>
+  <si>
+    <t>Q.I.</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,14 +107,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -441,130 +451,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -572,89 +585,225 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-18</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-15</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-10</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-5</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>112</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>126</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>114</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>112</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>121</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>110</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>103</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>111</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>124</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
